--- a/docs/collections/shashincho/etc/data.xlsx
+++ b/docs/collections/shashincho/etc/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>タイトル</t>
   </si>
@@ -158,6 +158,18 @@
  発行者は、両者ともに明治から昭和初期にかけての著名な写真家であった小川一真(おがわ・かずまさ 1860~1929)の小川写真製版所。小川一真は、明治15(1882)年に渡米して最新の写真技術やコロタイプ印刷術などを習得し、帰国後東京で開業。全国の社寺宝物調査に随行して撮影を行い、明治22(1889)年の東洋・日本美術専門雑誌『国華』の創刊にも携わった。他にも、皇族や皆既日食、濃尾大地震、日清・日露戦争、清朝末期の北京紫禁城の様子などの写真撮影を行っている。</t>
   </si>
   <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7ce76dab06e610895e607c9b53650c7e1d4fc874.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bbf5411b423ac6108e29be9fc63efc08330d0637.jpg</t>
+  </si>
+  <si>
     <t>bibo:identifier</t>
   </si>
   <si>
@@ -191,10 +203,10 @@
     <t>dcterms:relation</t>
   </si>
   <si>
-    <t>http://da.dl.itc.u-tokyo.ac.jp/uv/?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/collections/shashincho/image/manifest/952f7be5-2dec-40a7-b28a-0d5ccc91124e.json</t>
-  </si>
-  <si>
-    <t>http://da.dl.itc.u-tokyo.ac.jp/uv/?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/collections/shashincho/image/manifest/8b0089a9-66fc-4833-ab13-21d92f7f7aa4.json</t>
+    <t>http://da.dl.itc.u-tokyo.ac.jp/uv/?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/952f7be5-2dec-40a7-b28a-0d5ccc91124e.json</t>
+  </si>
+  <si>
+    <t>http://da.dl.itc.u-tokyo.ac.jp/uv/?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/8b0089a9-66fc-4833-ab13-21d92f7f7aa4.json</t>
   </si>
   <si>
     <t># of media</t>
@@ -542,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,22 +601,25 @@
         <v>42</v>
       </c>
       <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
-        <v>48</v>
-      </c>
       <c r="P1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R1" t="s">
         <v>58</v>
       </c>
+      <c r="S1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -645,22 +660,25 @@
         <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2">
+        <v>56</v>
+      </c>
+      <c r="R2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -694,23 +712,26 @@
       <c r="M3" t="s">
         <v>44</v>
       </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3">
+      <c r="P3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -738,28 +759,33 @@
       <c r="M4" t="s">
         <v>44</v>
       </c>
-      <c r="N4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="N4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
         <v>57</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1"/>
-    <hyperlink ref="Q3" r:id="rId2"/>
-    <hyperlink ref="O4" r:id="rId3"/>
-    <hyperlink ref="Q4" r:id="rId4"/>
+    <hyperlink ref="N3" r:id="rId1"/>
+    <hyperlink ref="P3" r:id="rId2"/>
+    <hyperlink ref="R3" r:id="rId3"/>
+    <hyperlink ref="N4" r:id="rId4"/>
+    <hyperlink ref="P4" r:id="rId5"/>
+    <hyperlink ref="R4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/collections/shashincho/etc/data.xlsx
+++ b/docs/collections/shashincho/etc/data.xlsx
@@ -203,10 +203,10 @@
     <t>dcterms:relation</t>
   </si>
   <si>
-    <t>http://da.dl.itc.u-tokyo.ac.jp/uv/?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/952f7be5-2dec-40a7-b28a-0d5ccc91124e.json</t>
-  </si>
-  <si>
-    <t>http://da.dl.itc.u-tokyo.ac.jp/uv/?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/8b0089a9-66fc-4833-ab13-21d92f7f7aa4.json</t>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/952f7be5-2dec-40a7-b28a-0d5ccc91124e.json</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/8b0089a9-66fc-4833-ab13-21d92f7f7aa4.json</t>
   </si>
   <si>
     <t># of media</t>
